--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -2,148 +2,129 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="新增客户报表 - 深圳" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
-    <r>
-      <t>提成明细报表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
+    <t xml:space="preserve">生意额增长
+</t>
   </si>
   <si>
-    <r>
-      <t>提成月份</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
+    <t>当月</t>
   </si>
   <si>
-    <t>新增提成比例：</t>
+    <t>比上月</t>
   </si>
   <si>
-    <t>跨区提成是否计算：</t>
+    <t>比去年当月</t>
   </si>
   <si>
-    <t>新增生意提成：</t>
+    <t xml:space="preserve">纯利润增长
+</t>
   </si>
   <si>
-    <t>跨区新增提成：</t>
+    <t xml:space="preserve">停单比例
+</t>
   </si>
   <si>
-    <t>更改生意提成：</t>
+    <t>上月</t>
   </si>
   <si>
-    <t>跨区更改提成：</t>
+    <t>去年当月</t>
   </si>
   <si>
-    <t>终止生意提成：</t>
+    <t xml:space="preserve">收款率
+</t>
   </si>
   <si>
-    <t>跨区终止提成：</t>
+    <t xml:space="preserve">技术员平均生产力
+</t>
   </si>
   <si>
-    <t>总额：</t>
+    <t>月报表分数</t>
   </si>
   <si>
-    <t>服务时间</t>
+    <t>老总回馈次数</t>
   </si>
   <si>
-    <t>签约时间</t>
+    <t xml:space="preserve">质检拜访量
+</t>
   </si>
   <si>
-    <t>客户编号及名称</t>
+    <t>销售拜访量</t>
   </si>
   <si>
-    <t>跨区业务员</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>服务频次</t>
-  </si>
-  <si>
-    <t>服务年金额</t>
-  </si>
-  <si>
-    <t>安装金额</t>
-  </si>
-  <si>
-    <t>是否计算过提成</t>
+    <t xml:space="preserve">签单成交率
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -154,7 +135,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,71 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -241,6 +201,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -259,31 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +241,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +257,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFECFF"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -325,7 +323,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,97 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,72 +437,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -514,31 +452,29 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,7 +498,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,18 +531,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,181 +565,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -853,7 +818,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -863,7 +828,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1149,121 +1114,958 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:BV166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="13.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="8" width="13.375" style="3"/>
+    <col min="9" max="9" width="13.8166666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.7" customWidth="1"/>
+    <col min="11" max="11" width="14.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="15.7333333333333" customWidth="1"/>
+    <col min="13" max="13" width="15.4416666666667" customWidth="1"/>
+    <col min="14" max="14" width="15.2833333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.7" customWidth="1"/>
+    <col min="16" max="16" width="14.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="13.9666666666667" customWidth="1"/>
+    <col min="18" max="18" width="14.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="14.5583333333333" customWidth="1"/>
+    <col min="20" max="20" width="13.3833333333333" customWidth="1"/>
+    <col min="21" max="21" width="14.2583333333333" customWidth="1"/>
+    <col min="22" max="22" width="14.4083333333333" customWidth="1"/>
+    <col min="23" max="23" width="13.9666666666667" customWidth="1"/>
+    <col min="24" max="24" width="14.2583333333333" customWidth="1"/>
+    <col min="25" max="25" width="15.4333333333333" customWidth="1"/>
+    <col min="26" max="26" width="15.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="B14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:74">
+      <c r="B32" s="5"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+    </row>
+    <row r="33" spans="2:74">
+      <c r="B33" s="5"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.196527777777778" bottom="0.275" header="0.118055555555556" footer="0.0388888888888889"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -14,9 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>提成明细报表</t>
     </r>
     <r>
@@ -32,6 +39,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>提成月份</t>
     </r>
     <r>
@@ -96,19 +110,16 @@
   <si>
     <t>安装金额</t>
   </si>
-  <si>
-    <t>是否计算过提成</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -147,15 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,9 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -214,16 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,9 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +254,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -276,14 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +286,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,90 +330,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,96 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,16 +558,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +589,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -592,184 +636,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,19 +1142,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="31.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="13.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
   </cols>
@@ -1202,7 +1213,7 @@
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1226,9 +1237,6 @@
       </c>
       <c r="H10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -158,7 +158,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,14 +188,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -211,6 +235,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,8 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,22 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -278,31 +295,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,18 +330,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,55 +384,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,103 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +579,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -589,45 +610,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -636,151 +618,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,14 +1145,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="31.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="22.7142857142857" customWidth="1"/>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="21255" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="新增客户报表 - 深圳" sheetId="1" r:id="rId1"/>
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -160,6 +160,72 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -187,54 +253,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,53 +293,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,6 +330,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,19 +432,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,139 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,17 +578,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,26 +630,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -639,148 +639,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1153,9 +1153,9 @@
     <col min="1" max="1" width="31.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="22.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="32.2857142857143" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="新增客户报表 - 深圳" sheetId="1" r:id="rId1"/>
+    <sheet name="提成明细报表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -116,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -160,79 +160,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,11 +187,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +261,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -286,15 +293,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,6 +330,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,6 +390,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,13 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +450,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,78 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,21 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -578,13 +563,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,174 +611,176 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -60,6 +60,9 @@
     </r>
   </si>
   <si>
+    <t>组别：</t>
+  </si>
+  <si>
     <t>新增提成比例：</t>
   </si>
   <si>
@@ -116,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -160,11 +163,100 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -187,29 +279,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,86 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,6 +333,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,168 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,33 +559,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,12 +607,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -639,148 +642,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1175,68 +1178,74 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" ht="15.75" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" ht="15.75" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3"/>
+    <row r="9" ht="15.75" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -87,6 +87,12 @@
     <t>跨区终止提成：</t>
   </si>
   <si>
+    <t>续约生意额提成</t>
+  </si>
+  <si>
+    <t>续约终止提成</t>
+  </si>
+  <si>
     <t>总额：</t>
   </si>
   <si>
@@ -119,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -163,102 +169,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +196,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -287,25 +273,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +339,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,6 +387,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,6 +453,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,7 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,126 +520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,17 +548,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,46 +623,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,160 +645,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1216,36 +1222,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:2">
+    <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="10" ht="15.75" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -105,7 +105,7 @@
     <t>客户编号及名称</t>
   </si>
   <si>
-    <t>跨区业务员</t>
+    <t>被跨区业务员</t>
   </si>
   <si>
     <t>类别</t>
@@ -126,9 +126,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -363,163 +363,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,85 +651,85 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -738,37 +738,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,19 +765,31 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="提成明细报表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -63,31 +63,49 @@
     <t>组别：</t>
   </si>
   <si>
+    <t>跨区提成是否计算：</t>
+  </si>
+  <si>
     <t>新增提成比例：</t>
   </si>
   <si>
-    <t>跨区提成是否计算：</t>
+    <t>销售提成激励点：</t>
   </si>
   <si>
     <t>新增生意提成：</t>
   </si>
   <si>
+    <t>新增业绩：</t>
+  </si>
+  <si>
+    <t>更改生意提成：</t>
+  </si>
+  <si>
+    <t>更改新增业绩：</t>
+  </si>
+  <si>
+    <t>终止生意提成：</t>
+  </si>
+  <si>
     <t>跨区新增提成：</t>
   </si>
   <si>
-    <t>更改生意提成：</t>
+    <t>跨区业绩：</t>
   </si>
   <si>
     <t>跨区更改提成：</t>
   </si>
   <si>
-    <t>终止生意提成：</t>
+    <t>跨区更改新增业绩：</t>
   </si>
   <si>
     <t>跨区终止提成：</t>
   </si>
   <si>
-    <t>续约生意额提成</t>
+    <t>续约生意提成:</t>
+  </si>
+  <si>
+    <t>续约业绩：</t>
   </si>
   <si>
     <t>续约终止提成</t>
@@ -125,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -363,6 +381,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,6 +435,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,6 +495,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,43 +513,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,142 +669,142 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,16 +1169,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="31.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="35.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="24.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
@@ -1188,39 +1206,39 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="2" t="s">
@@ -1230,36 +1248,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:2">
+    <row r="10" ht="14.25" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="s">
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12960"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="提成明细报表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -111,6 +111,9 @@
     <t>续约终止提成</t>
   </si>
   <si>
+    <t>产品提成：</t>
+  </si>
+  <si>
     <t>总额：</t>
   </si>
   <si>
@@ -143,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -453,6 +456,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,12 +541,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,145 +672,145 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1282,30 +1285,36 @@
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+    <row r="15" ht="15.75" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/acct/protected/commands/template/salecommsion.xlsx
+++ b/acct/protected/commands/template/salecommsion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="提成明细报表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -72,6 +72,9 @@
     <t>销售提成激励点：</t>
   </si>
   <si>
+    <t>服务奖励点：</t>
+  </si>
+  <si>
     <t>新增生意提成：</t>
   </si>
   <si>
@@ -147,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -194,9 +197,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,15 +304,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,53 +319,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,42 +336,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +363,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,169 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,25 +572,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -604,6 +594,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,20 +624,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,11 +646,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +675,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +687,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,7 +1178,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1213,108 +1216,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:2">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" ht="15.75" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" ht="15.75" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
